--- a/result/reg/bwd_all.xlsx
+++ b/result/reg/bwd_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -622,136 +622,130 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>var3</t>
+          <t>var2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>애완동물</t>
+          <t>미용실</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.515</v>
+        <v>0.337</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>-0.549</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.576</v>
+        <v>0.347</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="K3" t="n">
-        <v>-0.674</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>-0.235</v>
+        <v>-0.409</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="O3" t="n">
-        <v>-0.655</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>-0.658</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>var4</t>
+          <t>var3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>분식전문점</t>
+          <t>애완동물</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.614</v>
+        <v>-0.517</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>-0.388</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.624</v>
+        <v>-0.625</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>-0.465</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>0.516</v>
+        <v>-0.542</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>-0.596</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>var6</t>
+          <t>var4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>양식음식점</t>
+          <t>분식전문점</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.223</v>
+        <v>0.199</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -762,20 +756,14 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>0.207</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>0.185</v>
+        <v>0.359</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -790,44 +778,50 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>var9</t>
+          <t>var6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>치킨전문점</t>
+          <t>양식음식점</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.326</v>
+        <v>0.302</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="E6" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.27</v>
+        <v>0.337</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="M6" t="n">
-        <v>-0.246</v>
+        <v>0.166</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -835,17 +829,23 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>-0.34</v>
+        <v>0.223</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="S6" t="n">
-        <v>-0.228</v>
+        <v>0.143</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -856,26 +856,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>var13</t>
+          <t>var12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>호프-간이주점</t>
+          <t>제과점</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.117</v>
+        <v>-0.332</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>-0.257</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>0.141</v>
+        <v>-0.373</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -883,19 +889,31 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.114</v>
+        <v>-0.315</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>-0.292</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.298</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="O7" t="n">
-        <v>0.138</v>
+        <v>-0.279</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -905,7 +923,7 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>0.137</v>
+        <v>-0.305</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -916,26 +934,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>var20</t>
+          <t>var16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>사업체수</t>
+          <t>편의점</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.213</v>
+        <v>0.287</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="G8" t="n">
-        <v>0.187</v>
+        <v>0.275</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -943,17 +967,23 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.236</v>
+        <v>0.513</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="M8" t="n">
-        <v>0.196</v>
+        <v>0.4</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -961,37 +991,37 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>0.209</v>
+        <v>0.461</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="Q8" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>var22</t>
+          <t>var18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>대학교</t>
+          <t>사업체수</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.131</v>
+        <v>0.448</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -999,7 +1029,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.419</v>
+        <v>0.111</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1007,7 +1037,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-0.098</v>
+        <v>0.274</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1015,7 +1045,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.128</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1023,7 +1053,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.409</v>
+        <v>0.105</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1031,7 +1061,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-0.107</v>
+        <v>0.309</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1039,7 +1069,7 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>0.129</v>
+        <v>0.536</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1047,7 +1077,7 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.421</v>
+        <v>0.346</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1055,7 +1085,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>-0.08</v>
+        <v>0.316</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1066,52 +1096,40 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>var24</t>
+          <t>var19</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>월평균소득</t>
+          <t>종사자수</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.453</v>
+        <v>-0.208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>-0.159</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.452</v>
+        <v>-0.296</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="K10" t="n">
-        <v>-0.145</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>-0.479</v>
+        <v>-0.344</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1119,7 +1137,7 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>-0.158</v>
+        <v>-0.263</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1128,6 +1146,84 @@
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>var22</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>대학교</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.082</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.08799999999999999</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
